--- a/biology/Zoologie/Hyaenodonta/Hyaenodonta.xlsx
+++ b/biology/Zoologie/Hyaenodonta/Hyaenodonta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyaenodontes
-Les Hyaenodonta (hyaenodontes en français), parfois appelés « Hyaenodontida »[1] sont un sous-ordre fossile de mammifères euthériens hypercarnivores de l'ordre des créodontes[2].
+Les Hyaenodonta (hyaenodontes en français), parfois appelés « Hyaenodontida » sont un sous-ordre fossile de mammifères euthériens hypercarnivores de l'ordre des créodontes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils ont vécu en Afrique, en Eurasie et en Amérique du Nord au cours du Cénozoïque depuis le Paléocène inférieur (Danien) jusqu'au Miocène moyen (Serravallien), soit il y a environ entre 66,0 et 11,63 millions d'années[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils ont vécu en Afrique, en Eurasie et en Amérique du Nord au cours du Cénozoïque depuis le Paléocène inférieur (Danien) jusqu'au Miocène moyen (Serravallien), soit il y a environ entre 66,0 et 11,63 millions d'années.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'étude de la denture d'un spécimen d'Apterodon macrognathus et d'autres hyaenodontes par Borths et Stevens en 2017, a montré une différence importante entre les Hyaenodonta et les animaux de l'ordre des Carnivora. Les dents déciduales (« de lait ») des hyaenodontes apparaissaient en effet beaucoup plus lentement que chez les membres de l'ordre des carnivores[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étude de la denture d'un spécimen d'Apterodon macrognathus et d'autres hyaenodontes par Borths et Stevens en 2017, a montré une différence importante entre les Hyaenodonta et les animaux de l'ordre des Carnivora. Les dents déciduales (« de lait ») des hyaenodontes apparaissaient en effet beaucoup plus lentement que chez les membres de l'ordre des carnivores.
 </t>
         </is>
       </c>
@@ -574,10 +590,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sous-ordre des Hyaenodonta a été créé en 1967 par le biologiste américain Leigh Van Valen (1935-2010)[4].
-Classés à l’origine aux côtés des oxyaenidés au sein des Creodonta, les hyaenodontes ont vraisemblablement évolués à partir de l'Afrique au cours du Paléocène[5],[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le sous-ordre des Hyaenodonta a été créé en 1967 par le biologiste américain Leigh Van Valen (1935-2010).
+Classés à l’origine aux côtés des oxyaenidés au sein des Creodonta, les hyaenodontes ont vraisemblablement évolués à partir de l'Afrique au cours du Paléocène,.
 Ils incluent selon les classifications plusieurs super-familles et familles qui renferment un très grand nombre de genres :
 Super-familles :
 Hyaenodontoidea ;
@@ -589,11 +607,46 @@
 Proviverridae ;
 Limnocyonidae ;
 Oxyaenidae.
-Cependant, selon Floréal Solé et ses collègues en 2015, les Hyaenodonta ne regrouperait que deux (ou trois) familles[2] :
-Hyaenodontidae Leidy[7], 1869 ;
-Hyainailouridae Pilgrim[8], 1932 ;
-? Koholiinae Crochet[9], 1988.
-Liste des genres
+Cependant, selon Floréal Solé et ses collègues en 2015, les Hyaenodonta ne regrouperait que deux (ou trois) familles :
+Hyaenodontidae Leidy, 1869 ;
+Hyainailouridae Pilgrim, 1932 ;
+? Koholiinae Crochet, 1988.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hyaenodonta</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyaenodonta</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Famille des Proviverridae :
 Genre Allopterodon
 Genre Arfia
